--- a/samples/csv_file__address__four_fields/Locations.xlsx
+++ b/samples/csv_file__address__four_fields/Locations.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Icon_color</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Thumb_URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>R</t>
   </si>
@@ -127,24 +115,12 @@
     <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>New York's cool new park in the sky</t>
   </si>
   <si>
     <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
   </si>
   <si>
-    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions.</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -160,9 +136,6 @@
     <t>95 Gansevoort Street</t>
   </si>
   <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
     <t>509 W 29th Street</t>
   </si>
   <si>
@@ -181,7 +154,37 @@
     <t>478 W 15th Street</t>
   </si>
   <si>
-    <t>Caption</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>icon_color</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pic_url</t>
+  </si>
+  <si>
+    <t>thumb_url</t>
+  </si>
+  <si>
+    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
+  </si>
+  <si>
+    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="http://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
 </sst>
 </file>
@@ -666,13 +669,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1019,7 +1025,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,286 +1041,292 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1">
         <v>10001</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1">
         <v>10011</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1">
         <v>10011</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>10011</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>10011</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <v>10011</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>10014</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>10014</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>10014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/samples/csv_file__address__four_fields/Locations.xlsx
+++ b/samples/csv_file__address__four_fields/Locations.xlsx
@@ -157,9 +157,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>caption</t>
-  </si>
-  <si>
     <t>icon_color</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>zip</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,28 +1044,28 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">

--- a/samples/csv_file__address__four_fields/Locations.xlsx
+++ b/samples/csv_file__address__four_fields/Locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>R</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>is_video</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1042,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1067,8 +1070,11 @@
       <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>

--- a/samples/csv_file__address__four_fields/Locations.xlsx
+++ b/samples/csv_file__address__four_fields/Locations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupert\Documents\Story Maps\Story Map Tour\samples\csv_file__address__four_fields\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9528" tabRatio="459"/>
   </bookViews>
@@ -25,102 +30,51 @@
     <t>The High Line's plant list includes giant pussy willow. This and other plants were blooming ahead of schedule due to an unusually mild winter.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7050/7001512467_90b130c637_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7050/7001512467_90b130c637_m.jpg</t>
-  </si>
-  <si>
     <t>Tracks</t>
   </si>
   <si>
     <t>Throughout the High Line are carefully-preserved remnants of its history as a rail corridor. Plantings and fixtures are closely integrated with tracks and cross-ties.</t>
   </si>
   <si>
-    <t>http://farm7.staticflickr.com/6214/7001517915_3a54036960_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm7.staticflickr.com/6214/7001517915_3a54036960_m.jpg</t>
-  </si>
-  <si>
     <t>Diagonal</t>
   </si>
   <si>
     <t>Concrete planks taper into planted areas; the designers' goal was to blur the edges between pavement and plantings.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_m.jpg</t>
-  </si>
-  <si>
     <t>10th Avenue Square</t>
   </si>
   <si>
     <t>Tenth Avenue Square is suspended directly above the street. The amphitheater-like space lets visitors descend into the structure and gaze through plate glass windows at the the traffic below.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7183/6855404766_50db8ac69e_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7183/6855404766_50db8ac69e_m.jpg</t>
-  </si>
-  <si>
     <t>Loungers</t>
   </si>
   <si>
     <t>On an early spring weekday most of the prime spots were occupied. Competition is intense on warm weekend afternoons.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_m.jpg</t>
-  </si>
-  <si>
     <t>Underpass</t>
   </si>
   <si>
     <t>A chic new Standard Hotel looms above the southern end of the High Line. The building is among the most visible signs of the ongoing transformation of the Meatpacking District from industrial to upscale.</t>
   </si>
   <si>
-    <t>http://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_m.jpg</t>
-  </si>
-  <si>
     <t>High Line sign</t>
   </si>
   <si>
     <t>The broadleaf symbol of the New York City Parks and Recreation Department gives evidence to the High Line's official status as a city park.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_m.jpg</t>
-  </si>
-  <si>
     <t>Goodbye</t>
   </si>
   <si>
     <t>The amateur photographer seen snapping a picture of his companion earlier in this story waves farewell at the southern terminus of the High Line.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
-  </si>
-  <si>
     <t>New York's cool new park in the sky</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -175,12 +129,6 @@
     <t>thumb_url</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
-  </si>
-  <si>
-    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="http://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -188,6 +136,63 @@
   </si>
   <si>
     <t>is_video</t>
+  </si>
+  <si>
+    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="https://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7050/7001512467_90b130c637_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7050/7001512467_90b130c637_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6214/7001517915_3a54036960_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6214/7001517915_3a54036960_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7183/6855404766_50db8ac69e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7183/6855404766_50db8ac69e_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7074/6855416852_da59fd8a73_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
   </si>
 </sst>
 </file>
@@ -734,6 +739,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -781,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,7 +824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,63 +1052,63 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>10001</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1114,225 +1122,225 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>10011</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>10011</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>10011</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>10011</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>10011</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>10014</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
         <v>10014</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
         <v>10014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
